--- a/biology/Zoologie/Aigrette_ardoisée/Aigrette_ardoisée.xlsx
+++ b/biology/Zoologie/Aigrette_ardoisée/Aigrette_ardoisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aigrette_ardois%C3%A9e</t>
+          <t>Aigrette_ardoisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Egretta ardesiaca
 L'Aigrette ardoisée (Egretta ardesiaca) est une espèce d'oiseaux aquatiques de la famille des Ardeidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aigrette_ardois%C3%A9e</t>
+          <t>Aigrette_ardoisée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aigrette ardoisée mesure de 48 à 50 cm.
 Cette espèce ne présente pas de dimorphisme sexuel. Son plumage est entièrement noir à reflets gris ardoise ou bleus. Comme toutes les aigrettes, elle présente de longues plumes lancéolées portant ce nom. Celles-ci se rencontrent sur le dessus de la tête, la nuque, le cou et le manteau.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aigrette_ardois%C3%A9e</t>
+          <t>Aigrette_ardoisée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aigrette ardoisée consomme essentiellement de petits poissons mais aussi des crustacés et des insectes. Elle présente la caractéristique comportementale de placer ses ailes au-dessus d'elle de manière à faire de l'ombre sur l'eau, à la manière d'un parapluie, ce qui lui permet de voir sans reflets et de faire croire aux plus gros poissons qu'ils sont à l'abri et donc de moins bouger[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aigrette ardoisée consomme essentiellement de petits poissons mais aussi des crustacés et des insectes. Elle présente la caractéristique comportementale de placer ses ailes au-dessus d'elle de manière à faire de l'ombre sur l'eau, à la manière d'un parapluie, ce qui lui permet de voir sans reflets et de faire croire aux plus gros poissons qu'ils sont à l'abri et donc de moins bouger,.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aigrette_ardois%C3%A9e</t>
+          <t>Aigrette_ardoisée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mode de chasse caractéristique de l'aigrette ardoisée, ici à l'est d'Antananarivo, à Madagascar.
